--- a/CONCESIONARIO ANGEL Y ALEJANDRO.xlsx
+++ b/CONCESIONARIO ANGEL Y ALEJANDRO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>CODIGO</t>
   </si>
@@ -35,9 +35,6 @@
     <t>SI/NO</t>
   </si>
   <si>
-    <t>Introduzca el valor de</t>
-  </si>
-  <si>
     <t>Coche</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -159,18 +159,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -204,12 +198,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -338,76 +350,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,22 +411,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C21:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1920" sqref="A1909:XFD1920"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,177 +785,177 @@
   </cols>
   <sheetData>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="C24" s="40">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="42">
         <v>56000</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="42">
         <v>200</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="42">
         <v>90</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="42">
         <v>345</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="42">
         <v>587</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="C25" s="40">
         <v>2</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="42">
+        <v>135000</v>
+      </c>
+      <c r="F25" s="42">
+        <v>306</v>
+      </c>
+      <c r="G25" s="42">
+        <v>150</v>
+      </c>
+      <c r="H25" s="42">
+        <v>413</v>
+      </c>
+      <c r="I25" s="42">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="40">
+        <v>3</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="4">
-        <v>135000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>306</v>
-      </c>
-      <c r="G25" s="4">
-        <v>150</v>
-      </c>
-      <c r="H25" s="4">
-        <v>413</v>
-      </c>
-      <c r="I25" s="4">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="42">
+        <v>108050</v>
+      </c>
+      <c r="F26" s="42">
+        <v>156</v>
+      </c>
+      <c r="G26" s="42">
+        <v>160</v>
+      </c>
+      <c r="H26" s="42">
+        <v>324</v>
+      </c>
+      <c r="I26" s="42">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="40">
+        <v>4</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="4">
-        <v>108050</v>
-      </c>
-      <c r="F26" s="4">
-        <v>156</v>
-      </c>
-      <c r="G26" s="4">
-        <v>160</v>
-      </c>
-      <c r="H26" s="4">
-        <v>324</v>
-      </c>
-      <c r="I26" s="4">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="42">
+        <v>97460</v>
+      </c>
+      <c r="F27" s="42">
+        <v>345</v>
+      </c>
+      <c r="G27" s="42">
+        <v>175</v>
+      </c>
+      <c r="H27" s="42">
+        <v>459</v>
+      </c>
+      <c r="I27" s="42">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="40">
+        <v>5</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="4">
-        <v>97460</v>
-      </c>
-      <c r="F27" s="4">
-        <v>345</v>
-      </c>
-      <c r="G27" s="5">
-        <v>175</v>
-      </c>
-      <c r="H27" s="4">
-        <v>459</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="E28" s="42">
+        <v>140000</v>
+      </c>
+      <c r="F28" s="42">
+        <v>492</v>
+      </c>
+      <c r="G28" s="42">
+        <v>200</v>
+      </c>
+      <c r="H28" s="42">
+        <v>617</v>
+      </c>
+      <c r="I28" s="42">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="40">
+        <v>6</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="42">
+        <v>163050</v>
+      </c>
+      <c r="F29" s="42">
+        <v>513</v>
+      </c>
+      <c r="G29" s="42">
+        <v>234</v>
+      </c>
+      <c r="H29" s="42">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="4">
-        <v>140000</v>
-      </c>
-      <c r="F28" s="4">
-        <v>492</v>
-      </c>
-      <c r="G28" s="5">
-        <v>200</v>
-      </c>
-      <c r="H28" s="4">
-        <v>617</v>
-      </c>
-      <c r="I28" s="5">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="4">
-        <v>163050</v>
-      </c>
-      <c r="F29" s="4">
-        <v>513</v>
-      </c>
-      <c r="G29" s="5">
-        <v>234</v>
-      </c>
-      <c r="H29" s="4">
-        <v>700</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="I29" s="42">
         <v>965</v>
       </c>
     </row>
@@ -941,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,350 +981,348 @@
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="21"/>
+    <col min="8" max="8" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+      <c r="F3" s="3" t="str">
+        <f>LOOKUP(F2,TABLA!C24:C29,TABLA!D24:D29)</f>
+        <v>AUDI A8</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12">
+        <f>LOOKUP(F2,TABLA!C24:C29,TABLA!E24:E29)</f>
+        <v>97460</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(OR(D8="si",D8="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$F$24:$F$29), 0)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="15">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>LOOKUP(F2,TABLA!C24:C29,TABLA!D24:D29)</f>
-        <v>GTR-R35</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(OR(D9="si",D9="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$H$24:$H$29), 0)</f>
+        <v>459</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(OR(D10="si",D10="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$I$24:$I$29), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(OR(D11="si",D11="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$G$24:$G$29), 0)</f>
+        <v>175</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17">
-        <f>LOOKUP(F2,TABLA!C24:C29,TABLA!E24:E29)</f>
-        <v>108050</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <f>IF(OR(D8="si",D8="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$F$24:$F$29), 0)</f>
-        <v>156</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <f>IF(OR(D9="si",D9="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$H$24:$H$29), 0)</f>
-        <v>324</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
-        <f>IF(OR(D10="si",D10="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$I$24:$I$29), 0)</f>
-        <v>468</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2">
-        <f>IF(OR(D11="si",D11="SI"), LOOKUP($F$2,TABLA!$C$24:C29,TABLA!$G$24:$G$29), 0)</f>
-        <v>160</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="7">
+        <f>E8+E9+E10+E11</f>
+        <v>634</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="12">
-        <f>E8+E9+E10+E11</f>
-        <v>1108</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="5">
+        <f>F4+E12</f>
+        <v>98094</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="10">
-        <f>F4+E12</f>
-        <v>109158</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="8">
+        <f>E13-E13*D17</f>
+        <v>91227.42</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
-        <f>E13-E13*D17</f>
-        <v>102608.52</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22">
         <f xml:space="preserve"> D18+D18*D19</f>
-        <v>124156.3092</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+        <v>110385.17819999999</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -1303,27 +1332,27 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="11">
+      <c r="L40" s="6">
         <f>LOOKUP(F2,TABLA!C24:C29,TABLA!F24:F29)</f>
-        <v>156</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="11">
+      <c r="L41" s="6">
         <f>LOOKUP(F2,TABLA!C24:C29,TABLA!H24:H29)</f>
-        <v>324</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L42" s="11">
+      <c r="L42" s="6">
         <f>LOOKUP(F2,TABLA!C24:C29,TABLA!I24:I29)</f>
-        <v>468</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="11">
+      <c r="L43" s="6">
         <f>LOOKUP(F2,TABLA!C24:C29,TABLA!G24:G29)</f>
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
